--- a/Chronology.xlsx
+++ b/Chronology.xlsx
@@ -7,61 +7,124 @@
     <workbookView xWindow="480" yWindow="24" windowWidth="21060" windowHeight="7152"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="2" r:id="rId1"/>
-    <sheet name="Chrono" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chronology" sheetId="3" r:id="rId1"/>
+    <sheet name="Timeline" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Adam_birth">Chronology!$B$4</definedName>
+    <definedName name="Enoch_birth">Chronology!$B$10</definedName>
+    <definedName name="Enosh_birth">Chronology!$B$6</definedName>
+    <definedName name="Kenan_birth">Chronology!$B$7</definedName>
+    <definedName name="Lamech_birth">Chronology!$B$12</definedName>
+    <definedName name="Mahalalel_birth">Chronology!$B$8</definedName>
+    <definedName name="Methuselah_birth">Chronology!$B$11</definedName>
+    <definedName name="Noah_birth">Chronology!$B$13</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
   <si>
-    <t>Prior Event</t>
-  </si>
-  <si>
-    <t>Interval from prior</t>
-  </si>
-  <si>
-    <t>Subsequent Event</t>
-  </si>
-  <si>
-    <t>Interval to Subsequent</t>
-  </si>
-  <si>
-    <t>Verse</t>
-  </si>
-  <si>
-    <t>Bible verse reference to an event which can be nailed down</t>
-  </si>
-  <si>
-    <t>The specific event referred to within the verse</t>
-  </si>
-  <si>
-    <t>The verse reference of another event from which a time interval to this one can be measured</t>
-  </si>
-  <si>
-    <t>The time interval from the previous event</t>
-  </si>
-  <si>
-    <t>The verse reference of another event to which a time interval from this one can be measured</t>
-  </si>
-  <si>
-    <t>The time interval to the subsequent event</t>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Hellenist War</t>
+  </si>
+  <si>
+    <t>Alexander the Great</t>
+  </si>
+  <si>
+    <t>July, 356 BC</t>
+  </si>
+  <si>
+    <t>June, 323 BC</t>
+  </si>
+  <si>
+    <t>Date Calculator</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Enosh</t>
+  </si>
+  <si>
+    <t>Kenan</t>
+  </si>
+  <si>
+    <t>Mahalalel</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Enoch</t>
+  </si>
+  <si>
+    <t>Methuselah</t>
+  </si>
+  <si>
+    <t>translated</t>
+  </si>
+  <si>
+    <t>Lamech</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Shem</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>Japheth</t>
+  </si>
+  <si>
+    <t>&gt; 1556</t>
+  </si>
+  <si>
+    <t>Days Duration</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +147,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -101,6 +169,241 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Event</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Chronology!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Chronology!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="66301312"/>
+        <c:axId val="132276608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66301312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132276608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="132276608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="66301312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,122 +693,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>Chrono!A1</f>
-        <v>Verse</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C12" si="0">G3/360</f>
+        <v>40</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="D4" s="2">
+        <f>Adam_birth+C4</f>
+        <v>930</v>
+      </c>
+      <c r="F4">
+        <f>IF(LEN(A4),F3+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>334800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Adam_birth+130</f>
+        <v>130</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>912</v>
+      </c>
+      <c r="D5" s="2">
+        <f>B5+C5</f>
+        <v>1042</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F18" si="1">IF(LEN(A5),F4+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>328320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B5+105</f>
+        <v>235</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>905</v>
+      </c>
+      <c r="D6" s="2">
+        <f>Enosh_birth+C6</f>
+        <v>1140</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>325800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Enosh_birth+90</f>
+        <v>325</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="D7" s="2">
+        <f>Kenan_birth+C7</f>
+        <v>1235</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>327600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <f>B7+70</f>
+        <v>395</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>895</v>
+      </c>
+      <c r="D8" s="2">
+        <f>Mahalalel_birth+C8</f>
+        <v>1290</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>322200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Mahalalel_birth+65</f>
+        <v>460</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>962</v>
+      </c>
+      <c r="D9" s="2">
+        <f>B9+C9</f>
+        <v>1422</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>Chrono!B1</f>
-        <v>Event</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G9">
+        <v>346320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B9+162</f>
+        <v>622</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="D10" s="2">
+        <f>Enoch_birth+C10</f>
+        <v>987</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>Chrono!C1</f>
-        <v>Prior Event</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G10">
+        <v>131400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Enoch_birth+65</f>
+        <v>687</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>969</v>
+      </c>
+      <c r="D11" s="2">
+        <f>Methuselah_birth+C11</f>
+        <v>1656</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>Chrono!D1</f>
-        <v>Interval from prior</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G11">
+        <v>348840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Methuselah_birth+187</f>
+        <v>874</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>777</v>
+      </c>
+      <c r="D12" s="2">
+        <f>Lamech_birth+C12</f>
+        <v>1651</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>Chrono!E1</f>
-        <v>Subsequent Event</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G12">
+        <v>279720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <f>Lamech_birth+182</f>
+        <v>1056</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f>Chrono!F1</f>
-        <v>Interval to Subsequent</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <f>G17/360</f>
+        <v>33.397222222222226</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-334</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Chronology.xlsx
+++ b/Chronology.xlsx
@@ -9,24 +9,40 @@
   <sheets>
     <sheet name="Chronology" sheetId="3" r:id="rId1"/>
     <sheet name="Timeline" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Constants" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Adam_birth">Chronology!$B$4</definedName>
-    <definedName name="Enoch_birth">Chronology!$B$10</definedName>
-    <definedName name="Enosh_birth">Chronology!$B$6</definedName>
-    <definedName name="Kenan_birth">Chronology!$B$7</definedName>
-    <definedName name="Lamech_birth">Chronology!$B$12</definedName>
-    <definedName name="Mahalalel_birth">Chronology!$B$8</definedName>
-    <definedName name="Methuselah_birth">Chronology!$B$11</definedName>
-    <definedName name="Noah_birth">Chronology!$B$13</definedName>
+    <definedName name="Abram_birth">Chronology!$C$26</definedName>
+    <definedName name="Adam_birth">Chronology!$C$4</definedName>
+    <definedName name="Arpachshad_birth">Chronology!$C$18</definedName>
+    <definedName name="BCoffset">Constants!$B$1</definedName>
+    <definedName name="Eber_birth">Chronology!$C$20</definedName>
+    <definedName name="Enoch_birth">Chronology!$C$10</definedName>
+    <definedName name="Enosh_birth">Chronology!$C$6</definedName>
+    <definedName name="Flood">Chronology!$C$17</definedName>
+    <definedName name="Isaac_birth">Chronology!$C$33</definedName>
+    <definedName name="Jacob_birth">Chronology!$C$36</definedName>
+    <definedName name="Joseph_birth">Chronology!$C$49</definedName>
+    <definedName name="Kenan_birth">Chronology!$C$7</definedName>
+    <definedName name="Lamech_birth">Chronology!$C$12</definedName>
+    <definedName name="Mahalalel_birth">Chronology!$C$8</definedName>
+    <definedName name="Methuselah_birth">Chronology!$C$11</definedName>
+    <definedName name="Nahor_birth">Chronology!$C$24</definedName>
+    <definedName name="Noah_birth">Chronology!$C$13</definedName>
+    <definedName name="Peleg_birth">Chronology!$C$21</definedName>
+    <definedName name="Reu_birth">Chronology!$C$22</definedName>
+    <definedName name="Serug_birth">Chronology!$C$23</definedName>
+    <definedName name="Shelah_birth">Chronology!$C$19</definedName>
+    <definedName name="Shem_birth">Chronology!$C$15</definedName>
+    <definedName name="Terah_birth">Chronology!$C$25</definedName>
+    <definedName name="Terah_death">Chronology!$E$25</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="181">
   <si>
     <t>Event</t>
   </si>
@@ -34,24 +50,12 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
     <t>Hellenist War</t>
   </si>
   <si>
     <t>Alexander the Great</t>
   </si>
   <si>
-    <t>July, 356 BC</t>
-  </si>
-  <si>
-    <t>June, 323 BC</t>
-  </si>
-  <si>
     <t>Date Calculator</t>
   </si>
   <si>
@@ -100,20 +104,497 @@
     <t>Japheth</t>
   </si>
   <si>
-    <t>&gt; 1556</t>
-  </si>
-  <si>
-    <t>Days Duration</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>Years B.C.</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Arpachshad</t>
+  </si>
+  <si>
+    <t>Flood</t>
+  </si>
+  <si>
+    <t>Gen 11:10</t>
+  </si>
+  <si>
+    <t>Shelah</t>
+  </si>
+  <si>
+    <t>Eber</t>
+  </si>
+  <si>
+    <t>Peleg</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>?Gen 10:21</t>
+  </si>
+  <si>
+    <t>Serug</t>
+  </si>
+  <si>
+    <t>Nahor</t>
+  </si>
+  <si>
+    <t>Terah</t>
+  </si>
+  <si>
+    <t>Reu</t>
+  </si>
+  <si>
+    <t>Abram</t>
+  </si>
+  <si>
+    <t>Haran</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>Gen 11</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Esau</t>
+  </si>
+  <si>
+    <t>Jacob/Israel</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Isaac marries Rebekah</t>
+  </si>
+  <si>
+    <t>Gen 35:28</t>
+  </si>
+  <si>
+    <t>Abram departed Haran</t>
+  </si>
+  <si>
+    <t>Gen 12:4</t>
+  </si>
+  <si>
+    <t>Abram arrived Canaan</t>
+  </si>
+  <si>
+    <t>Abram married Hagar</t>
+  </si>
+  <si>
+    <t>Gen 16:3</t>
+  </si>
+  <si>
+    <t>Reuben</t>
+  </si>
+  <si>
+    <t>Simeon</t>
+  </si>
+  <si>
+    <t>Leah</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Bilhah</t>
+  </si>
+  <si>
+    <t>Naphtali</t>
+  </si>
+  <si>
+    <t>Yissachar</t>
+  </si>
+  <si>
+    <t>Gad</t>
+  </si>
+  <si>
+    <t>Zilpah</t>
+  </si>
+  <si>
+    <t>Zebulun</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>Dinah</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Benyamin</t>
+  </si>
+  <si>
+    <t>Gen 41:46</t>
+  </si>
+  <si>
+    <t>Gen 47:28</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Jacob arrives Egypt</t>
+  </si>
+  <si>
+    <t>Judah</t>
+  </si>
+  <si>
+    <t>Joseph becomes prime minister</t>
+  </si>
+  <si>
+    <t>Gen 45:6, 41</t>
+  </si>
+  <si>
+    <t>Years of famine</t>
+  </si>
+  <si>
+    <t>Years of plenty</t>
+  </si>
+  <si>
+    <t>Gen 41</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Othniel</t>
+  </si>
+  <si>
+    <t>Gen 45:6</t>
+  </si>
+  <si>
+    <t>Gen 47:9,</t>
+  </si>
+  <si>
+    <t>Ehud</t>
+  </si>
+  <si>
+    <t>Shamgar</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Gideon</t>
+  </si>
+  <si>
+    <t>Abimelech</t>
+  </si>
+  <si>
+    <t>Tola</t>
+  </si>
+  <si>
+    <t>Jair</t>
+  </si>
+  <si>
+    <t>Jephthah</t>
+  </si>
+  <si>
+    <t>Boaz</t>
+  </si>
+  <si>
+    <t>Eilon</t>
+  </si>
+  <si>
+    <t>Avdon</t>
+  </si>
+  <si>
+    <t>Shimshaon</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Saul reigned</t>
+  </si>
+  <si>
+    <t>David reigned</t>
+  </si>
+  <si>
+    <t>Solomon reigned</t>
+  </si>
+  <si>
+    <t>Rehoboam</t>
+  </si>
+  <si>
+    <t>Rehoboam reigned</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>Jeroboam reigned</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>Aviyyam reigned</t>
+  </si>
+  <si>
+    <t>Asa reigned</t>
+  </si>
+  <si>
+    <t>Nadav reigned</t>
+  </si>
+  <si>
+    <t>Basha reigned</t>
+  </si>
+  <si>
+    <t>Elah reigned</t>
+  </si>
+  <si>
+    <t>Zimri reigned</t>
+  </si>
+  <si>
+    <t>Omri reigned</t>
+  </si>
+  <si>
+    <t>Ahab reigned</t>
+  </si>
+  <si>
+    <t>Jehoshaphat</t>
+  </si>
+  <si>
+    <t>Ahaziah son of Ahab</t>
+  </si>
+  <si>
+    <t>Jehoram son of Ahab</t>
+  </si>
+  <si>
+    <t>Jehoram son of Jehoshaphat</t>
+  </si>
+  <si>
+    <t>Ahaziah son of Jehoram</t>
+  </si>
+  <si>
+    <t>Athaliah reigned</t>
+  </si>
+  <si>
+    <t>Jehoahaz</t>
+  </si>
+  <si>
+    <t>Azariah/Uzziah</t>
+  </si>
+  <si>
+    <t>Jehu reigned</t>
+  </si>
+  <si>
+    <t>Jehoash reigned</t>
+  </si>
+  <si>
+    <t>Jehoahaz reigned</t>
+  </si>
+  <si>
+    <t>Amaziah son of Jehoash reigned</t>
+  </si>
+  <si>
+    <t>Jeroboam II son of Jehoash reigned</t>
+  </si>
+  <si>
+    <t>Uzziah reigned</t>
+  </si>
+  <si>
+    <t>Zechariah reigned</t>
+  </si>
+  <si>
+    <t>Shallum</t>
+  </si>
+  <si>
+    <t>Menahem</t>
+  </si>
+  <si>
+    <t>Pekaiah</t>
+  </si>
+  <si>
+    <t>Jotham</t>
+  </si>
+  <si>
+    <t>Jotham regency</t>
+  </si>
+  <si>
+    <t>Jotham reigned</t>
+  </si>
+  <si>
+    <t>Ahaz son of Jotham</t>
+  </si>
+  <si>
+    <t>Ahaz son of Jotham reigned</t>
+  </si>
+  <si>
+    <t>Hoshea reigned</t>
+  </si>
+  <si>
+    <t>Hezekiah</t>
+  </si>
+  <si>
+    <t>Hezekiah reigned</t>
+  </si>
+  <si>
+    <t>Manasseh</t>
+  </si>
+  <si>
+    <t>Manasseh reigned</t>
+  </si>
+  <si>
+    <t>Amon</t>
+  </si>
+  <si>
+    <t>Amon reigned</t>
+  </si>
+  <si>
+    <t>Joshiah son of Amon</t>
+  </si>
+  <si>
+    <t>Joshiah reigned</t>
+  </si>
+  <si>
+    <t>Eliakim</t>
+  </si>
+  <si>
+    <t>Eliakim regined</t>
+  </si>
+  <si>
+    <t>Jehoiachin</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Jehoiachin reigned</t>
+  </si>
+  <si>
+    <t>Mattaniah/Zedekiah</t>
+  </si>
+  <si>
+    <t>Zedekiah reigned</t>
+  </si>
+  <si>
+    <t>Neb-pehty-ra Ah-mosheh I</t>
+  </si>
+  <si>
+    <t>Djeser-ka-ra Amun-hotep I</t>
+  </si>
+  <si>
+    <t>Aa-kheper-ka-ra Thoth-mosheh I</t>
+  </si>
+  <si>
+    <t>Aa-kheper-en-ra Thoth-mosheh II</t>
+  </si>
+  <si>
+    <t>Ma-at-ka-ra Hat-shep-sut</t>
+  </si>
+  <si>
+    <t>Men-kheper-ra Thoth-mosheh III</t>
+  </si>
+  <si>
+    <t>Egyptian pharaoh</t>
+  </si>
+  <si>
+    <t>Ashur-nasir-pal II</t>
+  </si>
+  <si>
+    <t>Assyria</t>
+  </si>
+  <si>
+    <t>Shalmaneser V reigned</t>
+  </si>
+  <si>
+    <t>Tiglath-pileser III reigned</t>
+  </si>
+  <si>
+    <t>Shalmaneser III reigned</t>
+  </si>
+  <si>
+    <t>Sargon II reigned</t>
+  </si>
+  <si>
+    <t>Sennacherib reigned</t>
+  </si>
+  <si>
+    <t>Esarhaddon reigned</t>
+  </si>
+  <si>
+    <t>Osorkon IV</t>
+  </si>
+  <si>
+    <t>Egyptian Pharaoh</t>
+  </si>
+  <si>
+    <t>Ashurbanipal reigned</t>
+  </si>
+  <si>
+    <t>Nabopolassar reigned</t>
+  </si>
+  <si>
+    <t>Babylon</t>
+  </si>
+  <si>
+    <t>Merodach-baladan II reigned</t>
+  </si>
+  <si>
+    <t>Nebuchadnezzar II</t>
+  </si>
+  <si>
+    <t>Amel-Marduk reigned</t>
+  </si>
+  <si>
+    <t>Neriglissar reigned</t>
+  </si>
+  <si>
+    <t>Nabonidus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0&quot; AD&quot;;0&quot; BC&quot;;0;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +610,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,18 +641,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Non-Biblical" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -223,42 +739,42 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Chronology!$B$3:$B$13</c:f>
+              <c:f>Chronology!$C$3:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0" AD";0" BC";0;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-3924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-3924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>-3794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235</c:v>
+                  <c:v>-3689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325</c:v>
+                  <c:v>-3599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>395</c:v>
+                  <c:v>-3529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>460</c:v>
+                  <c:v>-3464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>622</c:v>
+                  <c:v>-3302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>687</c:v>
+                  <c:v>-3237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>874</c:v>
+                  <c:v>-3050</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1056</c:v>
+                  <c:v>-2868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,26 +831,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="66301312"/>
-        <c:axId val="132276608"/>
+        <c:axId val="68393600"/>
+        <c:axId val="177078656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66301312"/>
+        <c:axId val="68393600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0&quot; AD&quot;;0&quot; BC&quot;;0;@" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132276608"/>
+        <c:crossAx val="177078656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132276608"/>
+        <c:axId val="177078656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,7 +867,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="66301312"/>
+        <c:crossAx val="68393600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -372,7 +888,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -383,7 +899,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8648700" cy="6276975"/>
+    <xdr:ext cx="8659091" cy="6280727"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -693,368 +1209,2148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <f>Constants!$B$1</f>
+        <v>-3924</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <f>Constants!$B$1</f>
+        <v>-3924</v>
+      </c>
+      <c r="D4" s="1">
+        <v>930</v>
+      </c>
+      <c r="E4" s="2">
+        <f>Adam_birth+D4</f>
+        <v>-2994</v>
+      </c>
+      <c r="G4">
+        <f>IF(LEN(A4),G3+1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <f>Adam_birth+130</f>
+        <v>-3794</v>
+      </c>
+      <c r="D5" s="1">
+        <v>912</v>
+      </c>
+      <c r="E5" s="2">
+        <f>C5+D5</f>
+        <v>-2882</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G153" si="0">IF(LEN(A5),G4+1,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C6" s="2">
+        <f>C5+105</f>
+        <v>-3689</v>
+      </c>
+      <c r="D6" s="1">
+        <v>905</v>
+      </c>
+      <c r="E6" s="2">
+        <f>Enosh_birth+D6</f>
+        <v>-2784</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Enosh_birth+90</f>
+        <v>-3599</v>
+      </c>
+      <c r="D7" s="1">
+        <v>910</v>
+      </c>
+      <c r="E7" s="2">
+        <f>Kenan_birth+D7</f>
+        <v>-2689</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C7+70</f>
+        <v>-3529</v>
+      </c>
+      <c r="D8" s="1">
+        <v>895</v>
+      </c>
+      <c r="E8" s="2">
+        <f>Mahalalel_birth+D8</f>
+        <v>-2634</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <f>Mahalalel_birth+65</f>
+        <v>-3464</v>
+      </c>
+      <c r="D9" s="1">
+        <v>962</v>
+      </c>
+      <c r="E9" s="2">
+        <f>C9+D9</f>
+        <v>-2502</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C9+162</f>
+        <v>-3302</v>
+      </c>
+      <c r="D10" s="1">
+        <v>365</v>
+      </c>
+      <c r="E10" s="2">
+        <f>Enoch_birth+D10</f>
+        <v>-2937</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <f>Enoch_birth+65</f>
+        <v>-3237</v>
+      </c>
+      <c r="D11" s="1">
+        <v>969</v>
+      </c>
+      <c r="E11" s="2">
+        <f>Methuselah_birth+D11</f>
+        <v>-2268</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <f>Methuselah_birth+187</f>
+        <v>-3050</v>
+      </c>
+      <c r="D12" s="1">
+        <v>777</v>
+      </c>
+      <c r="E12" s="2">
+        <f>Lamech_birth+D12</f>
+        <v>-2273</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <f>Lamech_birth+182</f>
+        <v>-2868</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <f>Noah_birth+500</f>
+        <v>-2368</v>
+      </c>
+      <c r="G14">
+        <f>IF(LEN(A14),G16+1,"")</f>
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <f>Noah_birth+502</f>
+        <v>-2366</v>
+      </c>
+      <c r="D15" s="1">
+        <f>E15-Shem_birth</f>
+        <v>600</v>
+      </c>
+      <c r="E15" s="2">
+        <f>Arpachshad_birth+500</f>
+        <v>-1766</v>
+      </c>
+      <c r="G15">
+        <f>IF(LEN(A15),G13+1,"")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <f>Shem_birth</f>
+        <v>-2366</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <f>Shem_birth+98</f>
+        <v>-2268</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2">
+        <f>Shem_birth+100</f>
+        <v>-2266</v>
+      </c>
+      <c r="D18" s="1">
+        <f>E18-Arpachshad_birth</f>
+        <v>438</v>
+      </c>
+      <c r="E18" s="2">
+        <f>Shelah_birth+403</f>
+        <v>-1828</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2">
+        <f>Arpachshad_birth+35</f>
+        <v>-2231</v>
+      </c>
+      <c r="D19" s="1">
+        <f>E19-Shelah_birth</f>
+        <v>433</v>
+      </c>
+      <c r="E19" s="2">
+        <f>Eber_birth+403</f>
+        <v>-1798</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2">
+        <f>Shelah_birth+30</f>
+        <v>-2201</v>
+      </c>
+      <c r="D20" s="1">
+        <f>E20-Eber_birth</f>
+        <v>464</v>
+      </c>
+      <c r="E20" s="2">
+        <f>C21+430</f>
+        <v>-1737</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <f>Eber_birth+34</f>
+        <v>-2167</v>
+      </c>
+      <c r="D21" s="1">
+        <f>E21-Peleg_birth</f>
+        <v>239</v>
+      </c>
+      <c r="E21" s="2">
+        <f>Reu_birth+209</f>
+        <v>-1928</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2">
+        <f>Peleg_birth+30</f>
+        <v>-2137</v>
+      </c>
+      <c r="D22" s="1">
+        <f>E22-Reu_birth</f>
+        <v>239</v>
+      </c>
+      <c r="E22" s="2">
+        <f>C23+207</f>
+        <v>-1898</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2">
+        <f>Reu_birth+32</f>
+        <v>-2105</v>
+      </c>
+      <c r="D23" s="1">
+        <f>E23-Serug_birth</f>
+        <v>230</v>
+      </c>
+      <c r="E23" s="2">
+        <f>C24+200</f>
+        <v>-1875</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2">
+        <f>Serug_birth+30</f>
+        <v>-2075</v>
+      </c>
+      <c r="D24" s="1">
+        <f>E24-Nahor_birth</f>
+        <v>148</v>
+      </c>
+      <c r="E24" s="2">
+        <f>Terah_birth+119</f>
+        <v>-1927</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2">
+        <f>Nahor_birth+29</f>
+        <v>-2046</v>
+      </c>
+      <c r="D25" s="1">
+        <v>205</v>
+      </c>
+      <c r="E25" s="2">
+        <f>Terah_birth+D25</f>
+        <v>-1841</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <f>Terah_birth+70</f>
+        <v>-1976</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2">
+        <f>Abram_birth+75</f>
+        <v>-1901</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <f>C27</f>
+        <v>-1901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2">
+        <f>C28+10</f>
+        <v>-1891</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <f>Terah_birth+70</f>
+        <v>-1976</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <f>Terah_birth+70</f>
+        <v>-1976</v>
+      </c>
+      <c r="E31" s="2">
+        <f>Terah_death</f>
+        <v>-1841</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2">
+        <f>C33-90</f>
+        <v>-1966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2">
+        <f>Abram_birth+100</f>
+        <v>-1876</v>
+      </c>
+      <c r="D33" s="1">
+        <v>180</v>
+      </c>
+      <c r="E33" s="2">
+        <f>Isaac_birth+D33</f>
+        <v>-1696</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2">
+        <f>Isaac_birth+42</f>
+        <v>-1834</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2">
+        <f>C34+91</f>
+        <v>-1743</v>
+      </c>
+      <c r="D36" s="1">
+        <v>147</v>
+      </c>
+      <c r="E36" s="2">
+        <f>C36+D36</f>
+        <v>-1596</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-1731</v>
+      </c>
+      <c r="H38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-1730</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-1729</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1592</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-1729</v>
+      </c>
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-1728</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-1728</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-1727</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-1727</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-1726</v>
+      </c>
+      <c r="H46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-1726</v>
+      </c>
+      <c r="H47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="2">
+        <v>-1725</v>
+      </c>
+      <c r="H48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="2">
+        <v>-1725</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1615</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-1717</v>
+      </c>
+      <c r="H50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="2">
+        <f>C49+30</f>
+        <v>-1695</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2">
+        <f>C53-7</f>
+        <v>-1622</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2">
+        <f>C52+D52</f>
+        <v>-1615</v>
+      </c>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="2">
+        <f>C54-2</f>
+        <v>-1615</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2">
+        <f>C53+D53</f>
+        <v>-1608</v>
+      </c>
+      <c r="H53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="2">
+        <f>Jacob_birth+130</f>
+        <v>-1613</v>
+      </c>
+      <c r="H54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="10">
+        <v>-1550</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="10">
+        <v>-1525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="10">
+        <v>-1525</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10">
+        <v>-1504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="10">
+        <v>-1504</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="10">
+        <v>-1492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="10">
+        <v>-1492</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10">
+        <v>-1479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="10">
+        <v>-1479</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="10">
+        <v>-1457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="10">
+        <v>-1479</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="10">
+        <v>-1415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2">
+        <v>-1476</v>
+      </c>
+      <c r="E61" s="2">
+        <v>-1437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-1436</v>
+      </c>
+      <c r="E62" s="2">
+        <v>-1409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2">
+        <v>-1408</v>
+      </c>
+      <c r="E63" s="2">
+        <v>-1369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="2">
+        <v>-1368</v>
+      </c>
+      <c r="E64" s="2">
+        <v>-1289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="2">
+        <v>-1288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="2">
+        <v>-1288</v>
+      </c>
+      <c r="E66" s="2">
+        <v>-1249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="2">
+        <v>-1241</v>
+      </c>
+      <c r="E67" s="2">
+        <v>-1202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="2">
+        <v>-1201</v>
+      </c>
+      <c r="E68" s="2">
+        <v>-1199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="2">
+        <v>-1198</v>
+      </c>
+      <c r="E69" s="2">
+        <v>-1176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="2">
+        <v>-1175</v>
+      </c>
+      <c r="E70" s="2">
+        <v>-1154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="2">
+        <v>-1137</v>
+      </c>
+      <c r="E71" s="2">
+        <v>-1132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="2">
+        <v>-1132</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-1126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="2">
+        <v>-1126</v>
+      </c>
+      <c r="E73" s="2">
+        <v>-1117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="2">
+        <v>-1117</v>
+      </c>
+      <c r="E74" s="2">
+        <v>-1110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="2">
+        <v>-1110</v>
+      </c>
+      <c r="E75" s="2">
+        <v>-1091</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="2">
+        <v>-1091</v>
+      </c>
+      <c r="E76" s="2">
+        <v>-1052</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="2">
+        <v>-1052</v>
+      </c>
+      <c r="E77" s="2">
+        <v>-1042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="2">
+        <v>-1080</v>
+      </c>
+      <c r="E79" s="2">
+        <v>-1040</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="2">
+        <f>2854+Constants!B1</f>
+        <v>-1070</v>
+      </c>
+      <c r="E80" s="2">
+        <v>-1001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="2">
+        <f>C80+30</f>
+        <v>-1040</v>
+      </c>
+      <c r="E81" s="2">
+        <f>E80</f>
+        <v>-1001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="2">
+        <f>E81</f>
+        <v>-1001</v>
+      </c>
+      <c r="E82" s="2">
+        <v>-961</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="2">
+        <f>C82</f>
+        <v>-1001</v>
+      </c>
+      <c r="E84" s="2">
+        <f>E85</f>
+        <v>-944</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="2">
+        <v>-960</v>
+      </c>
+      <c r="E85" s="2">
+        <v>-944</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="2">
+        <v>-960</v>
+      </c>
+      <c r="E86" s="2">
+        <v>-939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="2">
+        <v>-943</v>
+      </c>
+      <c r="E87" s="2">
+        <v>-941</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="2">
+        <v>-940</v>
+      </c>
+      <c r="E88" s="2">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="2">
+        <v>-939</v>
+      </c>
+      <c r="E89" s="2">
+        <v>-938</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="2">
+        <v>-938</v>
+      </c>
+      <c r="E90" s="2">
+        <v>-915</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="2">
+        <v>-915</v>
+      </c>
+      <c r="E91" s="2">
+        <v>-914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="2">
+        <v>-914</v>
+      </c>
+      <c r="E92" s="2">
+        <v>-914</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="2">
+        <v>-914</v>
+      </c>
+      <c r="E93" s="2">
+        <v>-903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="2">
+        <v>-903</v>
+      </c>
+      <c r="E94" s="2">
+        <v>-882</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="2">
+        <v>-899</v>
+      </c>
+      <c r="E95" s="2">
+        <v>-875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="2">
+        <v>-883</v>
+      </c>
+      <c r="E96" s="2">
+        <v>-859</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="2">
+        <v>-882</v>
+      </c>
+      <c r="E97" s="2">
+        <v>-881</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="2">
+        <v>-881</v>
+      </c>
+      <c r="E98" s="2">
+        <v>-870</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="2">
+        <v>-877</v>
+      </c>
+      <c r="E99" s="2">
+        <v>-870</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="2">
+        <v>-870</v>
+      </c>
+      <c r="E100" s="2">
+        <v>-870</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="2">
+        <v>-869</v>
+      </c>
+      <c r="E101" s="2">
+        <v>-864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="2">
+        <v>-869</v>
+      </c>
+      <c r="E102" s="2">
+        <v>-842</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="2">
+        <v>-863</v>
+      </c>
+      <c r="E103" s="2">
+        <v>-825</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="2">
+        <v>-858</v>
+      </c>
+      <c r="E104" s="2">
+        <v>-824</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="2">
+        <v>-842</v>
+      </c>
+      <c r="E105" s="2">
+        <v>-826</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="2">
+        <v>-825</v>
+      </c>
+      <c r="E106" s="2">
+        <v>-812</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="2">
+        <v>-824</v>
+      </c>
+      <c r="E107" s="2">
+        <v>-796</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="2">
+        <v>-812</v>
+      </c>
+      <c r="E108" s="2">
+        <v>-772</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" s="2">
+        <v>-826</v>
+      </c>
+      <c r="E109" s="2">
+        <v>-759</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="2">
+        <v>-810</v>
+      </c>
+      <c r="E110" s="2">
+        <f>E109</f>
+        <v>-759</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>131</v>
+      </c>
+      <c r="B111" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="2">
+        <v>-772</v>
+      </c>
+      <c r="E111" s="2">
+        <v>-771</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="2">
+        <v>-771</v>
+      </c>
+      <c r="E112" s="2">
+        <v>-771</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" s="2">
+        <v>-770</v>
+      </c>
+      <c r="E113" s="2">
+        <v>-761</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" s="2">
+        <v>-760</v>
+      </c>
+      <c r="E114" s="2">
+        <v>-759</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="2">
+        <v>-808</v>
+      </c>
+      <c r="E115" s="2">
+        <v>-743</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="2">
+        <v>-783</v>
+      </c>
+      <c r="E116" s="2">
+        <v>-758</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="2">
+        <v>-758</v>
+      </c>
+      <c r="E117" s="2">
+        <v>-743</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="2">
+        <v>-762</v>
+      </c>
+      <c r="E118" s="2">
+        <v>-727</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" s="10">
+        <v>-744</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="10">
+        <v>-727</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="2">
+        <v>-742</v>
+      </c>
+      <c r="E120" s="2">
+        <f>E118</f>
+        <v>-727</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" t="s">
+        <v>108</v>
+      </c>
+      <c r="C122" s="2">
+        <v>-738</v>
+      </c>
+      <c r="E122" s="2">
+        <v>-721</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="2">
+        <v>-751</v>
+      </c>
+      <c r="E123" s="2">
+        <v>-698</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" s="10">
+        <v>-727</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="10">
+        <v>-722</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="2">
+        <v>-726</v>
+      </c>
+      <c r="E125" s="2">
+        <f>E123</f>
+        <v>-698</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" s="2">
+        <v>-722</v>
+      </c>
+      <c r="E126" s="2">
+        <v>-703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127" s="10">
+        <v>-721</v>
+      </c>
+      <c r="D127" s="11"/>
+      <c r="E127" s="10">
+        <v>-705</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="2">
+        <v>-709</v>
+      </c>
+      <c r="E128" s="2">
+        <v>-643</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129">
+        <v>-704</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129">
+        <v>-681</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C130" s="10">
+        <v>-680</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="10">
+        <v>-669</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" s="2">
+        <v>-697</v>
+      </c>
+      <c r="E131" s="2">
+        <f>E128</f>
+        <v>-643</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C132" s="10">
+        <v>-668</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="10">
+        <v>-627</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="2">
+        <v>-664</v>
+      </c>
+      <c r="E133" s="2">
+        <v>-641</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" s="2">
+        <v>-642</v>
+      </c>
+      <c r="E134" s="2">
+        <f>E133</f>
+        <v>-641</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="2">
+        <v>-648</v>
+      </c>
+      <c r="E135" s="2">
+        <v>-610</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" s="2">
+        <v>-640</v>
+      </c>
+      <c r="E136" s="2">
+        <f>E135</f>
+        <v>-610</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="2">
+        <v>-632</v>
+      </c>
+      <c r="E137" s="2">
+        <v>-609</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C138" s="10">
+        <v>-626</v>
+      </c>
+      <c r="D138" s="11"/>
+      <c r="E138" s="10">
+        <v>-605</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="2">
+        <v>-633</v>
+      </c>
+      <c r="E139" s="2">
+        <v>-598</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140" s="2">
+        <v>-609</v>
+      </c>
+      <c r="E140" s="2">
+        <v>-609</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" t="s">
+        <v>106</v>
+      </c>
+      <c r="C141" s="2">
+        <v>-608</v>
+      </c>
+      <c r="E141" s="2">
+        <f>E139</f>
+        <v>-598</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" s="2">
+        <v>-606</v>
+      </c>
+      <c r="E142" s="2">
+        <v>-597</v>
+      </c>
+      <c r="H142" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="2">
+        <v>-605</v>
+      </c>
+      <c r="D143" s="1">
+        <f>43+1</f>
+        <v>44</v>
+      </c>
+      <c r="E143" s="2">
+        <f>C143+D143</f>
+        <v>-561</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" t="s">
+        <v>106</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="2">
+        <f>E142</f>
+        <v>-597</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145" s="2">
+        <v>-618</v>
+      </c>
+      <c r="E145" s="2">
+        <v>-587</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="2">
+        <v>-597</v>
+      </c>
+      <c r="E146" s="2">
+        <f>E145</f>
+        <v>-587</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>178</v>
+      </c>
+      <c r="B147" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" s="2">
+        <v>-561</v>
+      </c>
+      <c r="E147" s="2">
+        <v>-559</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C148" s="10">
+        <v>-559</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="10">
+        <v>-556</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="10">
+        <v>-556</v>
+      </c>
+      <c r="D149" s="11"/>
+      <c r="E149" s="10">
+        <v>-539</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" s="2">
+        <v>-356</v>
+      </c>
+      <c r="D152" s="1">
+        <f>E152-C152</f>
+        <v>33</v>
+      </c>
+      <c r="E152" s="2">
+        <v>-323</v>
+      </c>
+      <c r="F152" t="s">
+        <v>46</v>
+      </c>
+      <c r="G152">
+        <f>IF(LEN(A152),G14+1,"")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C12" si="0">G3/360</f>
-        <v>40</v>
-      </c>
-      <c r="D3" s="3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C153" s="2">
+        <v>-334</v>
+      </c>
+      <c r="G153">
         <f t="shared" si="0"/>
-        <v>930</v>
-      </c>
-      <c r="D4" s="2">
-        <f>Adam_birth+C4</f>
-        <v>930</v>
-      </c>
-      <c r="F4">
-        <f>IF(LEN(A4),F3+1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>334800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
-        <f>Adam_birth+130</f>
-        <v>130</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>912</v>
-      </c>
-      <c r="D5" s="2">
-        <f>B5+C5</f>
-        <v>1042</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F18" si="1">IF(LEN(A5),F4+1,"")</f>
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>328320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
-        <f>B5+105</f>
-        <v>235</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>905</v>
-      </c>
-      <c r="D6" s="2">
-        <f>Enosh_birth+C6</f>
-        <v>1140</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>325800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <f>Enosh_birth+90</f>
-        <v>325</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>910</v>
-      </c>
-      <c r="D7" s="2">
-        <f>Kenan_birth+C7</f>
-        <v>1235</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>327600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <f>B7+70</f>
-        <v>395</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>895</v>
-      </c>
-      <c r="D8" s="2">
-        <f>Mahalalel_birth+C8</f>
-        <v>1290</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>322200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3">
-        <f>Mahalalel_birth+65</f>
-        <v>460</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>962</v>
-      </c>
-      <c r="D9" s="2">
-        <f>B9+C9</f>
-        <v>1422</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>346320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <f>B9+162</f>
-        <v>622</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="D10" s="2">
-        <f>Enoch_birth+C10</f>
-        <v>987</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>131400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <f>Enoch_birth+65</f>
-        <v>687</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>969</v>
-      </c>
-      <c r="D11" s="2">
-        <f>Methuselah_birth+C11</f>
-        <v>1656</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>348840</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3">
-        <f>Methuselah_birth+187</f>
-        <v>874</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>777</v>
-      </c>
-      <c r="D12" s="2">
-        <f>Lamech_birth+C12</f>
-        <v>1651</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>279720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <f>Lamech_birth+182</f>
-        <v>1056</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <f>G17/360</f>
-        <v>33.397222222222226</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="G17" s="2">
-        <v>12023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-334</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
@@ -1065,14 +3361,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>-3924</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Chronology.xlsx
+++ b/Chronology.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="24" windowWidth="21060" windowHeight="7152"/>
+    <workbookView xWindow="480" yWindow="84" windowWidth="21060" windowHeight="7092"/>
   </bookViews>
   <sheets>
     <sheet name="Chronology" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="Reu_birth">Chronology!$C$22</definedName>
     <definedName name="Serug_birth">Chronology!$C$23</definedName>
     <definedName name="Shelah_birth">Chronology!$C$19</definedName>
-    <definedName name="Shem_birth">Chronology!$C$15</definedName>
+    <definedName name="Shem_birth">Chronology!$C$14</definedName>
     <definedName name="Terah_birth">Chronology!$C$25</definedName>
     <definedName name="Terah_death">Chronology!$E$25</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="183">
   <si>
     <t>Event</t>
   </si>
@@ -122,9 +122,6 @@
     <t>July</t>
   </si>
   <si>
-    <t>Relation</t>
-  </si>
-  <si>
     <t>Moses</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>?Gen 10:21</t>
-  </si>
-  <si>
     <t>Serug</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
     <t>Gen 45:6</t>
   </si>
   <si>
-    <t>Gen 47:9,</t>
-  </si>
-  <si>
     <t>Ehud</t>
   </si>
   <si>
@@ -585,6 +576,21 @@
   </si>
   <si>
     <t>Nabonidus</t>
+  </si>
+  <si>
+    <t>Gen 10:21</t>
+  </si>
+  <si>
+    <t>Gen 5:32, 6:10, 7:13, 10:1</t>
+  </si>
+  <si>
+    <t>1Chr 1:4</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Gen 47:9</t>
   </si>
 </sst>
 </file>
@@ -650,14 +656,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,6 +671,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,7 +708,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -831,11 +836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68393600"/>
-        <c:axId val="177078656"/>
+        <c:axId val="238330240"/>
+        <c:axId val="238331776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68393600"/>
+        <c:axId val="238330240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,12 +850,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177078656"/>
+        <c:crossAx val="238331776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177078656"/>
+        <c:axId val="238331776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,14 +872,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68393600"/>
+        <c:crossAx val="238330240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1209,11 +1213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
+      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,41 +1232,44 @@
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1443,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1463,7 +1470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1476,47 +1483,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <f>Noah_birth+500</f>
-        <v>-2368</v>
-      </c>
-      <c r="G14">
-        <f>IF(LEN(A14),G16+1,"")</f>
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2">
         <f>Noah_birth+502</f>
         <v>-2366</v>
       </c>
-      <c r="D15" s="1">
-        <f>E15-Shem_birth</f>
+      <c r="D14" s="1">
+        <f>E14-Shem_birth</f>
         <v>600</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E14" s="2">
         <f>Arpachshad_birth+500</f>
         <v>-1766</v>
       </c>
+      <c r="G14">
+        <f>IF(LEN(A14),G13+1,"")</f>
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <f>Shem_birth</f>
+        <v>-2366</v>
+      </c>
       <c r="G15">
-        <f>IF(LEN(A15),G13+1,"")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <f>IF(LEN(A15),G16+1,"")</f>
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1528,25 +1541,25 @@
         <v>-2366</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(A16),G14+1,"")</f>
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <f>Shem_birth+98</f>
         <v>-2268</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <f>Shem_birth+100</f>
@@ -1561,12 +1574,12 @@
         <v>-1828</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <f>Arpachshad_birth+35</f>
@@ -1581,12 +1594,12 @@
         <v>-1798</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <f>Shelah_birth+30</f>
@@ -1601,12 +1614,12 @@
         <v>-1737</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <f>Eber_birth+34</f>
@@ -1621,12 +1634,12 @@
         <v>-1928</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2">
         <f>Peleg_birth+30</f>
@@ -1641,12 +1654,12 @@
         <v>-1898</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2">
         <f>Reu_birth+32</f>
@@ -1661,12 +1674,12 @@
         <v>-1875</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
         <f>Serug_birth+30</f>
@@ -1681,12 +1694,12 @@
         <v>-1927</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
         <f>Nahor_birth+29</f>
@@ -1700,12 +1713,12 @@
         <v>-1841</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1715,24 +1728,24 @@
         <v>-1976</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2">
         <f>Abram_birth+75</f>
         <v>-1901</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1744,19 +1757,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2">
         <f>C28+10</f>
         <v>-1891</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1766,12 +1779,12 @@
         <v>-1976</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -1785,15 +1798,15 @@
         <v>-1841</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2">
         <f>C33-90</f>
@@ -1802,7 +1815,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <f>Abram_birth+100</f>
@@ -1816,12 +1829,12 @@
         <v>-1696</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2">
         <f>Isaac_birth+42</f>
@@ -1830,12 +1843,12 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <f>C34+91</f>
@@ -1849,39 +1862,39 @@
         <v>-1596</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2">
         <v>-1731</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2">
         <v>-1730</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2">
         <v>-1729</v>
@@ -1890,100 +1903,100 @@
         <v>1592</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2">
         <v>-1729</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2">
         <v>-1728</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2">
         <v>-1728</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2">
         <v>-1727</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="2">
         <v>-1727</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46" s="2">
         <v>-1726</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2">
         <v>-1726</v>
       </c>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="2">
         <v>-1725</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" s="2">
         <v>-1725</v>
@@ -1992,35 +2005,35 @@
         <v>1615</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2">
         <v>-1717</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2">
         <f>C49+30</f>
         <v>-1695</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
@@ -2037,12 +2050,12 @@
         <v>-1615</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" s="2">
         <f>C54-2</f>
@@ -2056,117 +2069,117 @@
         <v>-1608</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2">
         <f>Jacob_birth+130</f>
         <v>-1613</v>
       </c>
       <c r="H54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="8">
+        <v>-1550</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="8">
+        <v>-1525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="8">
+        <v>-1525</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="8">
+        <v>-1504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="8">
+        <v>-1504</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="8">
+        <v>-1492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="10">
-        <v>-1550</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="10">
-        <v>-1525</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+      <c r="B58" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="8">
+        <v>-1492</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="8">
+        <v>-1479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="10">
-        <v>-1525</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="10">
-        <v>-1504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+      <c r="B59" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="8">
+        <v>-1479</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="8">
+        <v>-1457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="10">
-        <v>-1504</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="10">
-        <v>-1492</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="10">
-        <v>-1492</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="10">
+      <c r="C60" s="8">
         <v>-1479</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="10">
-        <v>-1479</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="10">
-        <v>-1457</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="10">
-        <v>-1479</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="10">
+      <c r="D60" s="9"/>
+      <c r="E60" s="8">
         <v>-1415</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
         <v>27</v>
-      </c>
-      <c r="B61" t="s">
-        <v>28</v>
       </c>
       <c r="C61" s="2">
         <v>-1476</v>
@@ -2177,7 +2190,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2">
         <v>-1436</v>
@@ -2188,7 +2201,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2">
         <v>-1408</v>
@@ -2199,7 +2212,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2">
         <v>-1368</v>
@@ -2210,7 +2223,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2">
         <v>-1288</v>
@@ -2218,7 +2231,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2">
         <v>-1288</v>
@@ -2229,7 +2242,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2">
         <v>-1241</v>
@@ -2240,7 +2253,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2">
         <v>-1201</v>
@@ -2251,7 +2264,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2">
         <v>-1198</v>
@@ -2262,7 +2275,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2">
         <v>-1175</v>
@@ -2273,7 +2286,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2">
         <v>-1137</v>
@@ -2284,7 +2297,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2">
         <v>-1132</v>
@@ -2295,7 +2308,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2">
         <v>-1126</v>
@@ -2306,7 +2319,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2">
         <v>-1117</v>
@@ -2317,7 +2330,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2">
         <v>-1110</v>
@@ -2328,7 +2341,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2">
         <v>-1091</v>
@@ -2339,7 +2352,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2">
         <v>-1052</v>
@@ -2350,7 +2363,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2">
         <v>-1080</v>
@@ -2361,7 +2374,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" s="2">
         <f>2854+Constants!B1</f>
@@ -2373,7 +2386,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2">
         <f>C80+30</f>
@@ -2386,7 +2399,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2">
         <f>E81</f>
@@ -2398,7 +2411,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2">
         <f>C82</f>
@@ -2411,10 +2424,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2">
         <v>-960</v>
@@ -2425,10 +2438,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2">
         <v>-960</v>
@@ -2439,10 +2452,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C87" s="2">
         <v>-943</v>
@@ -2453,10 +2466,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2">
         <v>-940</v>
@@ -2467,10 +2480,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C89" s="2">
         <v>-939</v>
@@ -2481,10 +2494,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2">
         <v>-938</v>
@@ -2495,10 +2508,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2">
         <v>-915</v>
@@ -2509,10 +2522,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2">
         <v>-914</v>
@@ -2523,10 +2536,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2">
         <v>-914</v>
@@ -2537,10 +2550,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2">
         <v>-903</v>
@@ -2551,10 +2564,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2">
         <v>-899</v>
@@ -2565,10 +2578,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C96" s="2">
         <v>-883</v>
@@ -2579,10 +2592,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2">
         <v>-882</v>
@@ -2593,10 +2606,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2">
         <v>-881</v>
@@ -2607,10 +2620,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C99" s="2">
         <v>-877</v>
@@ -2621,10 +2634,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2">
         <v>-870</v>
@@ -2635,10 +2648,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2">
         <v>-869</v>
@@ -2649,10 +2662,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2">
         <v>-869</v>
@@ -2663,10 +2676,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2">
         <v>-863</v>
@@ -2677,10 +2690,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C104" s="2">
         <v>-858</v>
@@ -2691,10 +2704,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2">
         <v>-842</v>
@@ -2705,10 +2718,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2">
         <v>-825</v>
@@ -2719,10 +2732,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2">
         <v>-824</v>
@@ -2733,10 +2746,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2">
         <v>-812</v>
@@ -2747,7 +2760,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2">
         <v>-826</v>
@@ -2758,10 +2771,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2">
         <v>-810</v>
@@ -2773,10 +2786,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2">
         <v>-772</v>
@@ -2787,10 +2800,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2">
         <v>-771</v>
@@ -2801,10 +2814,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2">
         <v>-770</v>
@@ -2815,10 +2828,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C114" s="2">
         <v>-760</v>
@@ -2829,7 +2842,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C115" s="2">
         <v>-808</v>
@@ -2840,10 +2853,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2">
         <v>-783</v>
@@ -2854,10 +2867,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C117" s="2">
         <v>-758</v>
@@ -2868,7 +2881,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2">
         <v>-762</v>
@@ -2877,27 +2890,27 @@
         <v>-727</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C119" s="10">
+    <row r="119" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" s="8">
         <v>-744</v>
       </c>
-      <c r="D119" s="11"/>
-      <c r="E119" s="10">
+      <c r="D119" s="9"/>
+      <c r="E119" s="8">
         <v>-727</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2">
         <v>-742</v>
@@ -2907,23 +2920,23 @@
         <v>-727</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="10"/>
+    <row r="121" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C122" s="2">
         <v>-738</v>
@@ -2934,7 +2947,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C123" s="2">
         <v>-751</v>
@@ -2943,27 +2956,27 @@
         <v>-698</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C124" s="10">
+    <row r="124" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C124" s="8">
         <v>-727</v>
       </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="10">
+      <c r="D124" s="9"/>
+      <c r="E124" s="8">
         <v>-722</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C125" s="2">
         <v>-726</v>
@@ -2975,10 +2988,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C126" s="2">
         <v>-722</v>
@@ -2987,24 +3000,24 @@
         <v>-703</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C127" s="10">
+    <row r="127" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C127" s="8">
         <v>-721</v>
       </c>
-      <c r="D127" s="11"/>
-      <c r="E127" s="10">
+      <c r="D127" s="9"/>
+      <c r="E127" s="8">
         <v>-705</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C128" s="2">
         <v>-709</v>
@@ -3015,10 +3028,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C129">
         <v>-704</v>
@@ -3028,27 +3041,27 @@
         <v>-681</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C130" s="10">
+    <row r="130" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C130" s="8">
         <v>-680</v>
       </c>
-      <c r="D130" s="11"/>
-      <c r="E130" s="10">
+      <c r="D130" s="9"/>
+      <c r="E130" s="8">
         <v>-669</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C131" s="2">
         <v>-697</v>
@@ -3058,24 +3071,24 @@
         <v>-643</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C132" s="10">
+    <row r="132" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="8">
         <v>-668</v>
       </c>
-      <c r="D132" s="11"/>
-      <c r="E132" s="10">
+      <c r="D132" s="9"/>
+      <c r="E132" s="8">
         <v>-627</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2">
         <v>-664</v>
@@ -3086,10 +3099,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2">
         <v>-642</v>
@@ -3101,7 +3114,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C135" s="2">
         <v>-648</v>
@@ -3112,10 +3125,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C136" s="2">
         <v>-640</v>
@@ -3127,7 +3140,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C137" s="2">
         <v>-632</v>
@@ -3136,24 +3149,24 @@
         <v>-609</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C138" s="10">
+    <row r="138" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" s="8">
         <v>-626</v>
       </c>
-      <c r="D138" s="11"/>
-      <c r="E138" s="10">
+      <c r="D138" s="9"/>
+      <c r="E138" s="8">
         <v>-605</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2">
         <v>-633</v>
@@ -3164,10 +3177,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B140" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C140" s="2">
         <v>-609</v>
@@ -3178,10 +3191,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C141" s="2">
         <v>-608</v>
@@ -3193,7 +3206,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C142" s="2">
         <v>-606</v>
@@ -3202,15 +3215,15 @@
         <v>-597</v>
       </c>
       <c r="H142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B143" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C143" s="2">
         <v>-605</v>
@@ -3226,13 +3239,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E144" s="2">
         <f>E142</f>
@@ -3241,7 +3254,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C145" s="2">
         <v>-618</v>
@@ -3252,10 +3265,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C146" s="2">
         <v>-597</v>
@@ -3267,10 +3280,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B147" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C147" s="2">
         <v>-561</v>
@@ -3279,33 +3292,33 @@
         <v>-559</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C148" s="10">
+    <row r="148" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" s="8">
         <v>-559</v>
       </c>
-      <c r="D148" s="11"/>
-      <c r="E148" s="10">
+      <c r="D148" s="9"/>
+      <c r="E148" s="8">
         <v>-556</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C149" s="10">
+    <row r="149" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C149" s="8">
         <v>-556</v>
       </c>
-      <c r="D149" s="11"/>
-      <c r="E149" s="10">
+      <c r="D149" s="9"/>
+      <c r="E149" s="8">
         <v>-539</v>
       </c>
     </row>
@@ -3327,10 +3340,10 @@
         <v>-323</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G152">
-        <f>IF(LEN(A152),G14+1,"")</f>
+        <f>IF(LEN(A152),G15+1,"")</f>
         <v>14</v>
       </c>
     </row>

--- a/Chronology.xlsx
+++ b/Chronology.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="184">
   <si>
     <t>Event</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>Gen 47:9</t>
+  </si>
+  <si>
+    <t>Daniel in Lion's Den</t>
   </si>
 </sst>
 </file>
@@ -836,11 +839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238330240"/>
-        <c:axId val="238331776"/>
+        <c:axId val="228709120"/>
+        <c:axId val="228710656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238330240"/>
+        <c:axId val="228709120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,12 +853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238331776"/>
+        <c:crossAx val="228710656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238331776"/>
+        <c:axId val="228710656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +875,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="238330240"/>
+        <c:crossAx val="228709120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1217,7 +1220,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,6 +3322,17 @@
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="8">
+        <v>-539</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>183</v>
+      </c>
+      <c r="B150" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="2">
         <v>-539</v>
       </c>
     </row>
